--- a/examples/test-js/dink-content/main-recording.xlsx
+++ b/examples/test-js/dink-content/main-recording.xlsx
@@ -64,7 +64,7 @@
     <x:t>David</x:t>
   </x:si>
   <x:si>
-    <x:t>NZ7l</x:t>
+    <x:t>zoSB</x:t>
   </x:si>
   <x:si>
     <x:t>Unknown</x:t>
@@ -91,7 +91,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>qk64</x:t>
+    <x:t>MrYf</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_NY6V</x:t>
@@ -109,7 +109,7 @@
     <x:t>There is a choice here.</x:t>
   </x:si>
   <x:si>
-    <x:t>t0xs</x:t>
+    <x:t>h7gL</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -122,7 +122,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>zt1S</x:t>
+    <x:t>jow9</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -135,7 +135,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>EXOZ</x:t>
+    <x:t>PUQh</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -148,7 +148,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>r7Bg</x:t>
+    <x:t>LUYG</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -161,7 +161,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>qQNc</x:t>
+    <x:t>Gf0M</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -176,7 +176,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>Nccr</x:t>
+    <x:t>NiRn</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -188,7 +188,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>q10f</x:t>
+    <x:t>LeCq</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_CO2Z</x:t>
@@ -203,7 +203,7 @@
     <x:t>Hi, Laura here. What's up?</x:t>
   </x:si>
   <x:si>
-    <x:t>aWxE</x:t>
+    <x:t>QMwJ</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_5T8A</x:t>
@@ -219,7 +219,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>b5Ik</x:t>
+    <x:t>sHOs</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_J0MK</x:t>
@@ -231,7 +231,7 @@
     <x:t xml:space="preserve">(1/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>Xsmw</x:t>
+    <x:t>lGAB</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_CIMX</x:t>
@@ -243,7 +243,7 @@
     <x:t xml:space="preserve">(2/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>3yqd</x:t>
+    <x:t>kO4u</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_L3K7</x:t>
@@ -255,7 +255,7 @@
     <x:t>(3/3) Really mean it!</x:t>
   </x:si>
   <x:si>
-    <x:t>DYZQ</x:t>
+    <x:t>gZxI</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_16U4</x:t>
@@ -271,7 +271,7 @@
 Another comment for the same line.</x:t>
   </x:si>
   <x:si>
-    <x:t>y7w1</x:t>
+    <x:t>utPz</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_G33S</x:t>
@@ -321,7 +321,7 @@
 (1/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>sra9</x:t>
+    <x:t>XrkT</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_UWZ2</x:t>
@@ -333,7 +333,7 @@
     <x:t xml:space="preserve">(2/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>mExv</x:t>
+    <x:t>4L9m</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_1ZG8</x:t>
@@ -345,7 +345,7 @@
     <x:t>(3/7) How about this?</x:t>
   </x:si>
   <x:si>
-    <x:t>LoFV</x:t>
+    <x:t>vdSU</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_JFG1</x:t>
@@ -357,7 +357,7 @@
     <x:t xml:space="preserve">(4/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>zTwT</x:t>
+    <x:t>l5L4</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_4444</x:t>
@@ -369,7 +369,7 @@
     <x:t xml:space="preserve">(5/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>t343</x:t>
+    <x:t>iNj4</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_X291</x:t>
@@ -396,7 +396,7 @@
     <x:t xml:space="preserve">(6/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>UbQH</x:t>
+    <x:t>bDdo</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_N07F</x:t>
@@ -408,7 +408,7 @@
     <x:t xml:space="preserve">(7/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>olFJ</x:t>
+    <x:t>0r0f</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/examples/test-js/dink-content/main-recording.xlsx
+++ b/examples/test-js/dink-content/main-recording.xlsx
@@ -64,7 +64,7 @@
     <x:t>David</x:t>
   </x:si>
   <x:si>
-    <x:t>zoSB</x:t>
+    <x:t>zePM</x:t>
   </x:si>
   <x:si>
     <x:t>Unknown</x:t>
@@ -91,7 +91,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>MrYf</x:t>
+    <x:t>EKuW</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_NY6V</x:t>
@@ -109,7 +109,7 @@
     <x:t>There is a choice here.</x:t>
   </x:si>
   <x:si>
-    <x:t>h7gL</x:t>
+    <x:t>bFJM</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -122,7 +122,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>jow9</x:t>
+    <x:t>vTdb</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -135,7 +135,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>PUQh</x:t>
+    <x:t>LcJr</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -148,7 +148,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>LUYG</x:t>
+    <x:t>UEXj</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -161,7 +161,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>Gf0M</x:t>
+    <x:t>YkT5</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -176,7 +176,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>NiRn</x:t>
+    <x:t>yXHM</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -188,7 +188,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>LeCq</x:t>
+    <x:t>ElwT</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_CO2Z</x:t>
@@ -203,7 +203,11 @@
     <x:t>Hi, Laura here. What's up?</x:t>
   </x:si>
   <x:si>
-    <x:t>QMwJ</x:t>
+    <x:t xml:space="preserve">A scene where we chat to Laura.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44GW</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_5T8A</x:t>
@@ -219,7 +223,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>sHOs</x:t>
+    <x:t>aOWn</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_J0MK</x:t>
@@ -231,7 +235,7 @@
     <x:t xml:space="preserve">(1/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>lGAB</x:t>
+    <x:t>4THa</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_CIMX</x:t>
@@ -243,7 +247,7 @@
     <x:t xml:space="preserve">(2/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>kO4u</x:t>
+    <x:t>xik1</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_L3K7</x:t>
@@ -255,7 +259,7 @@
     <x:t>(3/3) Really mean it!</x:t>
   </x:si>
   <x:si>
-    <x:t>gZxI</x:t>
+    <x:t>wggi</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_16U4</x:t>
@@ -267,11 +271,13 @@
     <x:t>We're testing some comments here.</x:t>
   </x:si>
   <x:si>
-    <x:t>Comment for a line.
+    <x:t>This comment should apply to Test Scene.
+And so should this.
+Comment for a line.
 Another comment for the same line.</x:t>
   </x:si>
   <x:si>
-    <x:t>utPz</x:t>
+    <x:t>U41v</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_G33S</x:t>
@@ -321,7 +327,7 @@
 (1/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>XrkT</x:t>
+    <x:t>FHl1</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_UWZ2</x:t>
@@ -333,7 +339,7 @@
     <x:t xml:space="preserve">(2/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>4L9m</x:t>
+    <x:t>5He7</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_1ZG8</x:t>
@@ -345,7 +351,7 @@
     <x:t>(3/7) How about this?</x:t>
   </x:si>
   <x:si>
-    <x:t>vdSU</x:t>
+    <x:t>E3lC</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_JFG1</x:t>
@@ -357,7 +363,7 @@
     <x:t xml:space="preserve">(4/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>l5L4</x:t>
+    <x:t>kdLg</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_4444</x:t>
@@ -369,7 +375,7 @@
     <x:t xml:space="preserve">(5/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>iNj4</x:t>
+    <x:t>VyIu</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_X291</x:t>
@@ -396,7 +402,7 @@
     <x:t xml:space="preserve">(6/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>bDdo</x:t>
+    <x:t>g4Iz</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_N07F</x:t>
@@ -408,7 +414,7 @@
     <x:t xml:space="preserve">(7/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>0r0f</x:t>
+    <x:t>k4UT</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -848,7 +854,7 @@
     <x:col min="3" max="3" width="11.210625" style="1" customWidth="1"/>
     <x:col min="4" max="4" width="61.960625" style="1" customWidth="1"/>
     <x:col min="5" max="5" width="10.335625" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="32.960625" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="36.835625" style="1" customWidth="1"/>
     <x:col min="7" max="7" width="7.460625" style="1" customWidth="1"/>
     <x:col min="8" max="8" width="11.210625" style="1" customWidth="1"/>
     <x:col min="9" max="9" width="6.960625" style="1" customWidth="1"/>
@@ -1223,14 +1229,14 @@
       <x:c r="E12" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F12" s="3" t="s">
-        <x:v>14</x:v>
+      <x:c r="F12" s="5" t="s">
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G12" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H12" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I12" s="3" t="s">
         <x:v>14</x:v>
@@ -1241,28 +1247,28 @@
     </x:row>
     <x:row r="13" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A13" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E13" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F13" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G13" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H13" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I13" s="2" t="s">
         <x:v>14</x:v>
@@ -1273,28 +1279,28 @@
     </x:row>
     <x:row r="14" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A14" s="3" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="D14" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F14" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G14" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H14" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I14" s="3" t="s">
         <x:v>14</x:v>
@@ -1305,28 +1311,28 @@
     </x:row>
     <x:row r="15" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A15" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E15" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G15" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I15" s="2" t="s">
         <x:v>14</x:v>
@@ -1337,28 +1343,28 @@
     </x:row>
     <x:row r="16" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A16" s="3" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="D16" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E16" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F16" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G16" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H16" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I16" s="3" t="s">
         <x:v>14</x:v>
@@ -1367,30 +1373,30 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:10" ht="27" customHeight="1" s="2" customFormat="1">
+    <x:row r="17" spans="1:10" ht="54" customHeight="1" s="2" customFormat="1">
       <x:c r="A17" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E17" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F17" s="6" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G17" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H17" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I17" s="2" t="s">
         <x:v>14</x:v>
@@ -1401,16 +1407,16 @@
     </x:row>
     <x:row r="18" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A18" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E18" s="2" t="s">
         <x:v>14</x:v>
@@ -1422,7 +1428,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H18" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I18" s="2" t="s">
         <x:v>14</x:v>
@@ -1433,28 +1439,28 @@
     </x:row>
     <x:row r="19" spans="1:10" ht="27" customHeight="1" s="2" customFormat="1">
       <x:c r="A19" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E19" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F19" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G19" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I19" s="2" t="s">
         <x:v>14</x:v>
@@ -1465,28 +1471,28 @@
     </x:row>
     <x:row r="20" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A20" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E20" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G20" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H20" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I20" s="2" t="s">
         <x:v>14</x:v>
@@ -1497,16 +1503,16 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A21" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E21" s="2" t="s">
         <x:v>14</x:v>
@@ -1518,7 +1524,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H21" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I21" s="2" t="s">
         <x:v>14</x:v>
@@ -1529,28 +1535,28 @@
     </x:row>
     <x:row r="22" spans="1:10" ht="27" customHeight="1" s="3" customFormat="1">
       <x:c r="A22" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B22" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D22" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E22" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F22" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G22" s="3" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H22" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I22" s="3" t="s">
         <x:v>14</x:v>
@@ -1561,28 +1567,28 @@
     </x:row>
     <x:row r="23" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A23" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E23" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G23" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H23" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I23" s="2" t="s">
         <x:v>14</x:v>
@@ -1593,28 +1599,28 @@
     </x:row>
     <x:row r="24" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A24" s="3" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B24" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D24" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E24" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F24" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G24" s="3" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H24" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I24" s="3" t="s">
         <x:v>14</x:v>
@@ -1625,28 +1631,28 @@
     </x:row>
     <x:row r="25" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A25" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E25" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G25" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H25" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="I25" s="2" t="s">
         <x:v>14</x:v>
@@ -1657,28 +1663,28 @@
     </x:row>
     <x:row r="26" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A26" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B26" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D26" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E26" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F26" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G26" s="3" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H26" s="3" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I26" s="3" t="s">
         <x:v>14</x:v>
@@ -1689,28 +1695,28 @@
     </x:row>
     <x:row r="27" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A27" s="3" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B27" s="3" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C27" s="3" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D27" s="3" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E27" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F27" s="3" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="G27" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H27" s="3" t="s">
         <x:v>116</x:v>
-      </x:c>
-      <x:c r="B27" s="3" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C27" s="3" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D27" s="3" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E27" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F27" s="3" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="G27" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H27" s="3" t="s">
-        <x:v>115</x:v>
       </x:c>
       <x:c r="I27" s="3" t="s">
         <x:v>14</x:v>
@@ -1721,28 +1727,28 @@
     </x:row>
     <x:row r="28" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A28" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E28" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G28" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H28" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="I28" s="2" t="s">
         <x:v>14</x:v>
@@ -1753,28 +1759,28 @@
     </x:row>
     <x:row r="29" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A29" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B29" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D29" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E29" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F29" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G29" s="3" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H29" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="I29" s="3" t="s">
         <x:v>14</x:v>

--- a/examples/test-js/dink-content/main-recording.xlsx
+++ b/examples/test-js/dink-content/main-recording.xlsx
@@ -64,7 +64,7 @@
     <x:t>David</x:t>
   </x:si>
   <x:si>
-    <x:t>zePM</x:t>
+    <x:t>IWdy</x:t>
   </x:si>
   <x:si>
     <x:t>Unknown</x:t>
@@ -91,7 +91,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>EKuW</x:t>
+    <x:t>zZ8o</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_NY6V</x:t>
@@ -109,7 +109,7 @@
     <x:t>There is a choice here.</x:t>
   </x:si>
   <x:si>
-    <x:t>bFJM</x:t>
+    <x:t>ZIf7</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -122,7 +122,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>vTdb</x:t>
+    <x:t>O39G</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -135,7 +135,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>LcJr</x:t>
+    <x:t>wIjn</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -148,7 +148,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>UEXj</x:t>
+    <x:t>l70x</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -161,7 +161,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>YkT5</x:t>
+    <x:t>2uOq</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -176,7 +176,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>yXHM</x:t>
+    <x:t>bENa</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -188,7 +188,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>ElwT</x:t>
+    <x:t>g7QL</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_CO2Z</x:t>
@@ -207,7 +207,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>44GW</x:t>
+    <x:t>Y94A</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_5T8A</x:t>
@@ -223,7 +223,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>aOWn</x:t>
+    <x:t>H8CC</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_J0MK</x:t>
@@ -235,7 +235,7 @@
     <x:t xml:space="preserve">(1/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>4THa</x:t>
+    <x:t>1ZnP</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_CIMX</x:t>
@@ -247,7 +247,7 @@
     <x:t xml:space="preserve">(2/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>xik1</x:t>
+    <x:t>wbeV</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_L3K7</x:t>
@@ -259,7 +259,7 @@
     <x:t>(3/3) Really mean it!</x:t>
   </x:si>
   <x:si>
-    <x:t>wggi</x:t>
+    <x:t>MBNA</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_16U4</x:t>
@@ -277,7 +277,7 @@
 Another comment for the same line.</x:t>
   </x:si>
   <x:si>
-    <x:t>U41v</x:t>
+    <x:t>X2VI</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_G33S</x:t>
@@ -327,7 +327,7 @@
 (1/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>FHl1</x:t>
+    <x:t>pOMH</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_UWZ2</x:t>
@@ -339,7 +339,7 @@
     <x:t xml:space="preserve">(2/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>5He7</x:t>
+    <x:t>OWPJ</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_1ZG8</x:t>
@@ -351,7 +351,7 @@
     <x:t>(3/7) How about this?</x:t>
   </x:si>
   <x:si>
-    <x:t>E3lC</x:t>
+    <x:t>nQK7</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_JFG1</x:t>
@@ -363,7 +363,7 @@
     <x:t xml:space="preserve">(4/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>kdLg</x:t>
+    <x:t>XwRg</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_4444</x:t>
@@ -375,7 +375,7 @@
     <x:t xml:space="preserve">(5/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>VyIu</x:t>
+    <x:t>x0s5</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_X291</x:t>
@@ -402,7 +402,7 @@
     <x:t xml:space="preserve">(6/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>g4Iz</x:t>
+    <x:t>zKgw</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_N07F</x:t>
@@ -414,7 +414,7 @@
     <x:t xml:space="preserve">(7/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>k4UT</x:t>
+    <x:t>rXaB</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/examples/test-js/dink-content/main-recording.xlsx
+++ b/examples/test-js/dink-content/main-recording.xlsx
@@ -64,7 +64,7 @@
     <x:t>David</x:t>
   </x:si>
   <x:si>
-    <x:t>IWdy</x:t>
+    <x:t>uXOa</x:t>
   </x:si>
   <x:si>
     <x:t>Unknown</x:t>
@@ -91,7 +91,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>zZ8o</x:t>
+    <x:t>N3Ke</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_NY6V</x:t>
@@ -109,7 +109,7 @@
     <x:t>There is a choice here.</x:t>
   </x:si>
   <x:si>
-    <x:t>ZIf7</x:t>
+    <x:t>9Xte</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -122,7 +122,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>O39G</x:t>
+    <x:t>Bpuz</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -135,7 +135,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>wIjn</x:t>
+    <x:t>8KkF</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -148,7 +148,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>l70x</x:t>
+    <x:t>igag</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -161,7 +161,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>2uOq</x:t>
+    <x:t>uQLC</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -176,7 +176,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>bENa</x:t>
+    <x:t>5N0e</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -188,7 +188,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>g7QL</x:t>
+    <x:t>I2Ri</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_CO2Z</x:t>
@@ -207,7 +207,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>Y94A</x:t>
+    <x:t>7cC0</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_5T8A</x:t>
@@ -223,7 +223,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>H8CC</x:t>
+    <x:t>d5aj</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_J0MK</x:t>
@@ -235,7 +235,7 @@
     <x:t xml:space="preserve">(1/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>1ZnP</x:t>
+    <x:t>AJbt</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_CIMX</x:t>
@@ -247,7 +247,7 @@
     <x:t xml:space="preserve">(2/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>wbeV</x:t>
+    <x:t>QxNF</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_L3K7</x:t>
@@ -259,7 +259,7 @@
     <x:t>(3/3) Really mean it!</x:t>
   </x:si>
   <x:si>
-    <x:t>MBNA</x:t>
+    <x:t>uR5r</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_16U4</x:t>
@@ -277,7 +277,7 @@
 Another comment for the same line.</x:t>
   </x:si>
   <x:si>
-    <x:t>X2VI</x:t>
+    <x:t>zyiY</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_G33S</x:t>
@@ -327,7 +327,7 @@
 (1/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>pOMH</x:t>
+    <x:t>1gvn</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_UWZ2</x:t>
@@ -339,7 +339,7 @@
     <x:t xml:space="preserve">(2/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>OWPJ</x:t>
+    <x:t>pnRQ</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_1ZG8</x:t>
@@ -351,7 +351,7 @@
     <x:t>(3/7) How about this?</x:t>
   </x:si>
   <x:si>
-    <x:t>nQK7</x:t>
+    <x:t>arGM</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_JFG1</x:t>
@@ -363,7 +363,7 @@
     <x:t xml:space="preserve">(4/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>XwRg</x:t>
+    <x:t>m7xl</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_4444</x:t>
@@ -375,7 +375,7 @@
     <x:t xml:space="preserve">(5/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>x0s5</x:t>
+    <x:t>ky8X</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_X291</x:t>
@@ -402,7 +402,7 @@
     <x:t xml:space="preserve">(6/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>zKgw</x:t>
+    <x:t>roOK</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_N07F</x:t>
@@ -414,7 +414,7 @@
     <x:t xml:space="preserve">(7/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>rXaB</x:t>
+    <x:t>oUh7</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/examples/test-js/dink-content/main-recording.xlsx
+++ b/examples/test-js/dink-content/main-recording.xlsx
@@ -64,7 +64,7 @@
     <x:t>David</x:t>
   </x:si>
   <x:si>
-    <x:t>uXOa</x:t>
+    <x:t>YuH1</x:t>
   </x:si>
   <x:si>
     <x:t>Unknown</x:t>
@@ -91,7 +91,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>N3Ke</x:t>
+    <x:t>iX2Q</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_NY6V</x:t>
@@ -109,7 +109,7 @@
     <x:t>There is a choice here.</x:t>
   </x:si>
   <x:si>
-    <x:t>9Xte</x:t>
+    <x:t>b1mO</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -122,7 +122,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>Bpuz</x:t>
+    <x:t>Iafa</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -135,7 +135,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>8KkF</x:t>
+    <x:t>iGoy</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -148,7 +148,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>igag</x:t>
+    <x:t>dfLd</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -161,7 +161,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>uQLC</x:t>
+    <x:t>uJUA</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -176,7 +176,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>5N0e</x:t>
+    <x:t>EXMY</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -188,7 +188,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>I2Ri</x:t>
+    <x:t>FZE6</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_CO2Z</x:t>
@@ -203,11 +203,7 @@
     <x:t>Hi, Laura here. What's up?</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">A scene where we chat to Laura.
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7cC0</x:t>
+    <x:t>Ndgo</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_5T8A</x:t>
@@ -223,7 +219,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>d5aj</x:t>
+    <x:t>3qmz</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_J0MK</x:t>
@@ -232,10 +228,11 @@
     <x:t>It's pretty good today.</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">(1/3) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>AJbt</x:t>
+    <x:t xml:space="preserve">OPTION "What's the weather like?"
+(1/3) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>SlY1</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_CIMX</x:t>
@@ -247,7 +244,7 @@
     <x:t xml:space="preserve">(2/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>QxNF</x:t>
+    <x:t>sPmp</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_L3K7</x:t>
@@ -256,10 +253,10 @@
     <x:t>Dull, dull grey.</x:t>
   </x:si>
   <x:si>
-    <x:t>(3/3) Really mean it!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uR5r</x:t>
+    <x:t xml:space="preserve">(3/3) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Iep7</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_16U4</x:t>
@@ -271,13 +268,11 @@
     <x:t>We're testing some comments here.</x:t>
   </x:si>
   <x:si>
-    <x:t>This comment should apply to Test Scene.
-And so should this.
-Comment for a line.
+    <x:t>Comment for a line.
 Another comment for the same line.</x:t>
   </x:si>
   <x:si>
-    <x:t>zyiY</x:t>
+    <x:t>RwSy</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_G33S</x:t>
@@ -327,7 +322,7 @@
 (1/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>1gvn</x:t>
+    <x:t>VPdF</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_UWZ2</x:t>
@@ -339,7 +334,7 @@
     <x:t xml:space="preserve">(2/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>pnRQ</x:t>
+    <x:t>YKom</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_1ZG8</x:t>
@@ -348,10 +343,10 @@
     <x:t>Why do you keep doing that?</x:t>
   </x:si>
   <x:si>
-    <x:t>(3/7) How about this?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>arGM</x:t>
+    <x:t xml:space="preserve">(3/7) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>xUFU</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_JFG1</x:t>
@@ -363,7 +358,7 @@
     <x:t xml:space="preserve">(4/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>m7xl</x:t>
+    <x:t>v685</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_4444</x:t>
@@ -375,7 +370,7 @@
     <x:t xml:space="preserve">(5/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>ky8X</x:t>
+    <x:t>wFYQ</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_X291</x:t>
@@ -402,7 +397,7 @@
     <x:t xml:space="preserve">(6/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>roOK</x:t>
+    <x:t>gomc</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_N07F</x:t>
@@ -414,7 +409,7 @@
     <x:t xml:space="preserve">(7/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>oUh7</x:t>
+    <x:t>a5CI</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -854,7 +849,7 @@
     <x:col min="3" max="3" width="11.210625" style="1" customWidth="1"/>
     <x:col min="4" max="4" width="61.960625" style="1" customWidth="1"/>
     <x:col min="5" max="5" width="10.335625" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="36.835625" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="32.960625" style="1" customWidth="1"/>
     <x:col min="7" max="7" width="7.460625" style="1" customWidth="1"/>
     <x:col min="8" max="8" width="11.210625" style="1" customWidth="1"/>
     <x:col min="9" max="9" width="6.960625" style="1" customWidth="1"/>
@@ -1229,14 +1224,14 @@
       <x:c r="E12" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F12" s="5" t="s">
+      <x:c r="F12" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G12" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H12" s="3" t="s">
         <x:v>61</x:v>
-      </x:c>
-      <x:c r="G12" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H12" s="3" t="s">
-        <x:v>62</x:v>
       </x:c>
       <x:c r="I12" s="3" t="s">
         <x:v>14</x:v>
@@ -1247,60 +1242,60 @@
     </x:row>
     <x:row r="13" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A13" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
         <x:v>63</x:v>
-      </x:c>
-      <x:c r="B13" s="2" t="s">
-        <x:v>64</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E13" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F13" s="6" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="E13" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F13" s="6" t="s">
+      <x:c r="G13" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H13" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="G13" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H13" s="2" t="s">
+      <x:c r="I13" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J13" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:10" ht="27" customHeight="1" s="3" customFormat="1">
+      <x:c r="A14" s="3" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="I13" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J13" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
-      <x:c r="A14" s="3" t="s">
-        <x:v>68</x:v>
-      </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="D14" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E14" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F14" s="5" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="E14" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F14" s="3" t="s">
+      <x:c r="G14" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H14" s="3" t="s">
         <x:v>70</x:v>
-      </x:c>
-      <x:c r="G14" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H14" s="3" t="s">
-        <x:v>71</x:v>
       </x:c>
       <x:c r="I14" s="3" t="s">
         <x:v>14</x:v>
@@ -1311,28 +1306,28 @@
     </x:row>
     <x:row r="15" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A15" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E15" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="E15" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F15" s="2" t="s">
+      <x:c r="G15" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H15" s="2" t="s">
         <x:v>74</x:v>
-      </x:c>
-      <x:c r="G15" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H15" s="2" t="s">
-        <x:v>75</x:v>
       </x:c>
       <x:c r="I15" s="2" t="s">
         <x:v>14</x:v>
@@ -1343,60 +1338,60 @@
     </x:row>
     <x:row r="16" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A16" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="D16" s="3" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E16" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F16" s="3" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="E16" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F16" s="3" t="s">
+      <x:c r="G16" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H16" s="3" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="G16" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H16" s="3" t="s">
+      <x:c r="I16" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J16" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:10" ht="27" customHeight="1" s="2" customFormat="1">
+      <x:c r="A17" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="I16" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J16" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:10" ht="54" customHeight="1" s="2" customFormat="1">
-      <x:c r="A17" s="2" t="s">
+      <x:c r="B17" s="2" t="s">
         <x:v>80</x:v>
-      </x:c>
-      <x:c r="B17" s="2" t="s">
-        <x:v>81</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E17" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F17" s="6" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="E17" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F17" s="6" t="s">
+      <x:c r="G17" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H17" s="2" t="s">
         <x:v>83</x:v>
-      </x:c>
-      <x:c r="G17" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H17" s="2" t="s">
-        <x:v>84</x:v>
       </x:c>
       <x:c r="I17" s="2" t="s">
         <x:v>14</x:v>
@@ -1407,16 +1402,16 @@
     </x:row>
     <x:row r="18" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A18" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E18" s="2" t="s">
         <x:v>14</x:v>
@@ -1428,7 +1423,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H18" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I18" s="2" t="s">
         <x:v>14</x:v>
@@ -1439,28 +1434,28 @@
     </x:row>
     <x:row r="19" spans="1:10" ht="27" customHeight="1" s="2" customFormat="1">
       <x:c r="A19" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E19" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F19" s="6" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="E19" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F19" s="6" t="s">
-        <x:v>89</x:v>
-      </x:c>
       <x:c r="G19" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I19" s="2" t="s">
         <x:v>14</x:v>
@@ -1471,28 +1466,28 @@
     </x:row>
     <x:row r="20" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A20" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E20" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="E20" s="2" t="s">
+      <x:c r="F20" s="2" t="s">
         <x:v>92</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s">
-        <x:v>93</x:v>
       </x:c>
       <x:c r="G20" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H20" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I20" s="2" t="s">
         <x:v>14</x:v>
@@ -1503,16 +1498,16 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A21" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E21" s="2" t="s">
         <x:v>14</x:v>
@@ -1524,7 +1519,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H21" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I21" s="2" t="s">
         <x:v>14</x:v>
@@ -1535,28 +1530,28 @@
     </x:row>
     <x:row r="22" spans="1:10" ht="27" customHeight="1" s="3" customFormat="1">
       <x:c r="A22" s="3" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B22" s="3" t="s">
         <x:v>96</x:v>
-      </x:c>
-      <x:c r="B22" s="3" t="s">
-        <x:v>97</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D22" s="3" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E22" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F22" s="5" t="s">
         <x:v>98</x:v>
-      </x:c>
-      <x:c r="E22" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F22" s="5" t="s">
-        <x:v>99</x:v>
       </x:c>
       <x:c r="G22" s="3" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H22" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I22" s="3" t="s">
         <x:v>14</x:v>
@@ -1567,28 +1562,28 @@
     </x:row>
     <x:row r="23" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A23" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E23" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s">
         <x:v>102</x:v>
-      </x:c>
-      <x:c r="E23" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s">
-        <x:v>103</x:v>
       </x:c>
       <x:c r="G23" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H23" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I23" s="2" t="s">
         <x:v>14</x:v>
@@ -1599,28 +1594,28 @@
     </x:row>
     <x:row r="24" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A24" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B24" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D24" s="3" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E24" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F24" s="3" t="s">
         <x:v>106</x:v>
-      </x:c>
-      <x:c r="E24" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F24" s="3" t="s">
-        <x:v>107</x:v>
       </x:c>
       <x:c r="G24" s="3" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H24" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="I24" s="3" t="s">
         <x:v>14</x:v>
@@ -1631,28 +1626,28 @@
     </x:row>
     <x:row r="25" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A25" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E25" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s">
         <x:v>110</x:v>
-      </x:c>
-      <x:c r="E25" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s">
-        <x:v>111</x:v>
       </x:c>
       <x:c r="G25" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H25" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="I25" s="2" t="s">
         <x:v>14</x:v>
@@ -1663,28 +1658,28 @@
     </x:row>
     <x:row r="26" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A26" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B26" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D26" s="3" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E26" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F26" s="3" t="s">
         <x:v>114</x:v>
-      </x:c>
-      <x:c r="E26" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F26" s="3" t="s">
-        <x:v>115</x:v>
       </x:c>
       <x:c r="G26" s="3" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H26" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I26" s="3" t="s">
         <x:v>14</x:v>
@@ -1695,28 +1690,28 @@
     </x:row>
     <x:row r="27" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A27" s="3" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B27" s="3" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C27" s="3" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="B27" s="3" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="C27" s="3" t="s">
+      <x:c r="D27" s="3" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="D27" s="3" t="s">
+      <x:c r="E27" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F27" s="3" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="E27" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F27" s="3" t="s">
-        <x:v>120</x:v>
-      </x:c>
       <x:c r="G27" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H27" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I27" s="3" t="s">
         <x:v>14</x:v>
@@ -1727,28 +1722,28 @@
     </x:row>
     <x:row r="28" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
       <x:c r="A28" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E28" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="E28" s="2" t="s">
+      <x:c r="F28" s="2" t="s">
         <x:v>123</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s">
-        <x:v>124</x:v>
       </x:c>
       <x:c r="G28" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H28" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="I28" s="2" t="s">
         <x:v>14</x:v>
@@ -1759,28 +1754,28 @@
     </x:row>
     <x:row r="29" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A29" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B29" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D29" s="3" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E29" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F29" s="3" t="s">
         <x:v>127</x:v>
-      </x:c>
-      <x:c r="E29" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F29" s="3" t="s">
-        <x:v>128</x:v>
       </x:c>
       <x:c r="G29" s="3" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H29" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I29" s="3" t="s">
         <x:v>14</x:v>

--- a/examples/test-js/dink-content/main-recording.xlsx
+++ b/examples/test-js/dink-content/main-recording.xlsx
@@ -64,7 +64,7 @@
     <x:t>David</x:t>
   </x:si>
   <x:si>
-    <x:t>YuH1</x:t>
+    <x:t>B7t5</x:t>
   </x:si>
   <x:si>
     <x:t>Unknown</x:t>
@@ -91,7 +91,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>iX2Q</x:t>
+    <x:t>jd0f</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_NY6V</x:t>
@@ -109,7 +109,7 @@
     <x:t>There is a choice here.</x:t>
   </x:si>
   <x:si>
-    <x:t>b1mO</x:t>
+    <x:t>1G55</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -122,7 +122,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>Iafa</x:t>
+    <x:t>386V</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -135,7 +135,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>iGoy</x:t>
+    <x:t>Rfvk</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -148,7 +148,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>dfLd</x:t>
+    <x:t>rVib</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -161,7 +161,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>uJUA</x:t>
+    <x:t>xgUi</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -176,7 +176,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>EXMY</x:t>
+    <x:t>11u1</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -188,7 +188,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>FZE6</x:t>
+    <x:t>G6G4</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_CO2Z</x:t>
@@ -203,7 +203,7 @@
     <x:t>Hi, Laura here. What's up?</x:t>
   </x:si>
   <x:si>
-    <x:t>Ndgo</x:t>
+    <x:t>18Wn</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_5T8A</x:t>
@@ -219,7 +219,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>3qmz</x:t>
+    <x:t>6IAN</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_J0MK</x:t>
@@ -232,7 +232,7 @@
 (1/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>SlY1</x:t>
+    <x:t>ejHV</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_CIMX</x:t>
@@ -244,7 +244,7 @@
     <x:t xml:space="preserve">(2/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>sPmp</x:t>
+    <x:t>8qLB</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_L3K7</x:t>
@@ -256,7 +256,7 @@
     <x:t xml:space="preserve">(3/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>Iep7</x:t>
+    <x:t>twHV</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_16U4</x:t>
@@ -272,7 +272,7 @@
 Another comment for the same line.</x:t>
   </x:si>
   <x:si>
-    <x:t>RwSy</x:t>
+    <x:t>Sl7I</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_G33S</x:t>
@@ -322,7 +322,7 @@
 (1/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>VPdF</x:t>
+    <x:t>VnUX</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_UWZ2</x:t>
@@ -334,7 +334,7 @@
     <x:t xml:space="preserve">(2/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>YKom</x:t>
+    <x:t>BUhZ</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_1ZG8</x:t>
@@ -346,7 +346,7 @@
     <x:t xml:space="preserve">(3/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>xUFU</x:t>
+    <x:t>BuRx</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_JFG1</x:t>
@@ -358,7 +358,7 @@
     <x:t xml:space="preserve">(4/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>v685</x:t>
+    <x:t>u7lc</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_4444</x:t>
@@ -370,7 +370,7 @@
     <x:t xml:space="preserve">(5/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>wFYQ</x:t>
+    <x:t>k9fF</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_X291</x:t>
@@ -397,7 +397,7 @@
     <x:t xml:space="preserve">(6/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>gomc</x:t>
+    <x:t>0twZ</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_N07F</x:t>
@@ -409,7 +409,7 @@
     <x:t xml:space="preserve">(7/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>a5CI</x:t>
+    <x:t>ONXm</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/examples/test-js/dink-content/main-recording.xlsx
+++ b/examples/test-js/dink-content/main-recording.xlsx
@@ -64,7 +64,7 @@
     <x:t>David</x:t>
   </x:si>
   <x:si>
-    <x:t>B7t5</x:t>
+    <x:t>w7zp</x:t>
   </x:si>
   <x:si>
     <x:t>Unknown</x:t>
@@ -91,7 +91,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>jd0f</x:t>
+    <x:t>D5hS</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_NY6V</x:t>
@@ -109,7 +109,7 @@
     <x:t>There is a choice here.</x:t>
   </x:si>
   <x:si>
-    <x:t>1G55</x:t>
+    <x:t>WSyU</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -122,7 +122,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>386V</x:t>
+    <x:t>aaR0</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -135,7 +135,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>Rfvk</x:t>
+    <x:t>YDaQ</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -148,7 +148,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>rVib</x:t>
+    <x:t>blNR</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -161,7 +161,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>xgUi</x:t>
+    <x:t>GX53</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -176,7 +176,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>11u1</x:t>
+    <x:t>nvdw</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -188,7 +188,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>G6G4</x:t>
+    <x:t>SlpG</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_CO2Z</x:t>
@@ -203,7 +203,7 @@
     <x:t>Hi, Laura here. What's up?</x:t>
   </x:si>
   <x:si>
-    <x:t>18Wn</x:t>
+    <x:t>sd2u</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_5T8A</x:t>
@@ -219,7 +219,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>6IAN</x:t>
+    <x:t>LTD9</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_J0MK</x:t>
@@ -232,7 +232,7 @@
 (1/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>ejHV</x:t>
+    <x:t>wEui</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_CIMX</x:t>
@@ -244,7 +244,7 @@
     <x:t xml:space="preserve">(2/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>8qLB</x:t>
+    <x:t>GVje</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_L3K7</x:t>
@@ -256,7 +256,7 @@
     <x:t xml:space="preserve">(3/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>twHV</x:t>
+    <x:t>7inI</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_16U4</x:t>
@@ -272,7 +272,7 @@
 Another comment for the same line.</x:t>
   </x:si>
   <x:si>
-    <x:t>Sl7I</x:t>
+    <x:t>y2Bv</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_G33S</x:t>
@@ -322,7 +322,7 @@
 (1/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>VnUX</x:t>
+    <x:t>hUaM</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_UWZ2</x:t>
@@ -334,7 +334,7 @@
     <x:t xml:space="preserve">(2/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>BUhZ</x:t>
+    <x:t>lAkH</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_1ZG8</x:t>
@@ -346,7 +346,7 @@
     <x:t xml:space="preserve">(3/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>BuRx</x:t>
+    <x:t>PSMq</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_JFG1</x:t>
@@ -358,7 +358,7 @@
     <x:t xml:space="preserve">(4/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>u7lc</x:t>
+    <x:t>xSfR</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_4444</x:t>
@@ -370,7 +370,7 @@
     <x:t xml:space="preserve">(5/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>k9fF</x:t>
+    <x:t>U06q</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_X291</x:t>
@@ -397,7 +397,7 @@
     <x:t xml:space="preserve">(6/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>0twZ</x:t>
+    <x:t>EhGW</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_N07F</x:t>
@@ -409,7 +409,7 @@
     <x:t xml:space="preserve">(7/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>ONXm</x:t>
+    <x:t>ylr1</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/examples/test-js/dink-content/main-recording.xlsx
+++ b/examples/test-js/dink-content/main-recording.xlsx
@@ -64,7 +64,7 @@
     <x:t>David</x:t>
   </x:si>
   <x:si>
-    <x:t>w7zp</x:t>
+    <x:t>YM10</x:t>
   </x:si>
   <x:si>
     <x:t>Unknown</x:t>
@@ -91,7 +91,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>D5hS</x:t>
+    <x:t>DD4S</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_NY6V</x:t>
@@ -109,7 +109,7 @@
     <x:t>There is a choice here.</x:t>
   </x:si>
   <x:si>
-    <x:t>WSyU</x:t>
+    <x:t>o0OZ</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -122,7 +122,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>aaR0</x:t>
+    <x:t>oAg3</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -135,7 +135,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>YDaQ</x:t>
+    <x:t>BrfI</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -148,7 +148,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>blNR</x:t>
+    <x:t>kjLg</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -161,7 +161,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>GX53</x:t>
+    <x:t>7v2L</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -176,7 +176,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>nvdw</x:t>
+    <x:t>7gTH</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -188,7 +188,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>SlpG</x:t>
+    <x:t>oJ5H</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_CO2Z</x:t>
@@ -203,7 +203,7 @@
     <x:t>Hi, Laura here. What's up?</x:t>
   </x:si>
   <x:si>
-    <x:t>sd2u</x:t>
+    <x:t>ffgc</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_5T8A</x:t>
@@ -219,7 +219,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>LTD9</x:t>
+    <x:t>7qbK</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_J0MK</x:t>
@@ -232,7 +232,7 @@
 (1/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>wEui</x:t>
+    <x:t>fpQw</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_CIMX</x:t>
@@ -244,7 +244,7 @@
     <x:t xml:space="preserve">(2/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>GVje</x:t>
+    <x:t>i7O0</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_L3K7</x:t>
@@ -256,7 +256,7 @@
     <x:t xml:space="preserve">(3/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>7inI</x:t>
+    <x:t>I7HR</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_16U4</x:t>
@@ -272,7 +272,7 @@
 Another comment for the same line.</x:t>
   </x:si>
   <x:si>
-    <x:t>y2Bv</x:t>
+    <x:t>XFJg</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_G33S</x:t>
@@ -322,7 +322,7 @@
 (1/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>hUaM</x:t>
+    <x:t>4W2d</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_UWZ2</x:t>
@@ -334,7 +334,7 @@
     <x:t xml:space="preserve">(2/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>lAkH</x:t>
+    <x:t>bCvh</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_1ZG8</x:t>
@@ -346,7 +346,7 @@
     <x:t xml:space="preserve">(3/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>PSMq</x:t>
+    <x:t>Ji0g</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_JFG1</x:t>
@@ -358,7 +358,7 @@
     <x:t xml:space="preserve">(4/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>xSfR</x:t>
+    <x:t>RT21</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_4444</x:t>
@@ -370,7 +370,7 @@
     <x:t xml:space="preserve">(5/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>U06q</x:t>
+    <x:t>75XB</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_X291</x:t>
@@ -397,7 +397,7 @@
     <x:t xml:space="preserve">(6/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>EhGW</x:t>
+    <x:t>FZVZ</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_N07F</x:t>
@@ -409,7 +409,7 @@
     <x:t xml:space="preserve">(7/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>ylr1</x:t>
+    <x:t>Zl0I</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/examples/test-js/dink-content/main-recording.xlsx
+++ b/examples/test-js/dink-content/main-recording.xlsx
@@ -64,7 +64,7 @@
     <x:t>David</x:t>
   </x:si>
   <x:si>
-    <x:t>YM10</x:t>
+    <x:t>w7zp</x:t>
   </x:si>
   <x:si>
     <x:t>Unknown</x:t>
@@ -91,7 +91,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>DD4S</x:t>
+    <x:t>D5hS</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_NY6V</x:t>
@@ -109,7 +109,7 @@
     <x:t>There is a choice here.</x:t>
   </x:si>
   <x:si>
-    <x:t>o0OZ</x:t>
+    <x:t>WSyU</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -122,7 +122,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>oAg3</x:t>
+    <x:t>aaR0</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -135,7 +135,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>BrfI</x:t>
+    <x:t>YDaQ</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -148,7 +148,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>kjLg</x:t>
+    <x:t>blNR</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -161,7 +161,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>7v2L</x:t>
+    <x:t>GX53</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -176,7 +176,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>7gTH</x:t>
+    <x:t>nvdw</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -188,7 +188,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>oJ5H</x:t>
+    <x:t>SlpG</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_CO2Z</x:t>
@@ -203,7 +203,7 @@
     <x:t>Hi, Laura here. What's up?</x:t>
   </x:si>
   <x:si>
-    <x:t>ffgc</x:t>
+    <x:t>sd2u</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_5T8A</x:t>
@@ -219,7 +219,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>7qbK</x:t>
+    <x:t>LTD9</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_J0MK</x:t>
@@ -232,7 +232,7 @@
 (1/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>fpQw</x:t>
+    <x:t>wEui</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_CIMX</x:t>
@@ -244,7 +244,7 @@
     <x:t xml:space="preserve">(2/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>i7O0</x:t>
+    <x:t>GVje</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_L3K7</x:t>
@@ -256,7 +256,7 @@
     <x:t xml:space="preserve">(3/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>I7HR</x:t>
+    <x:t>7inI</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_16U4</x:t>
@@ -272,7 +272,7 @@
 Another comment for the same line.</x:t>
   </x:si>
   <x:si>
-    <x:t>XFJg</x:t>
+    <x:t>y2Bv</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_G33S</x:t>
@@ -322,7 +322,7 @@
 (1/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>4W2d</x:t>
+    <x:t>hUaM</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_UWZ2</x:t>
@@ -334,7 +334,7 @@
     <x:t xml:space="preserve">(2/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>bCvh</x:t>
+    <x:t>lAkH</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_1ZG8</x:t>
@@ -346,7 +346,7 @@
     <x:t xml:space="preserve">(3/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>Ji0g</x:t>
+    <x:t>PSMq</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_JFG1</x:t>
@@ -358,7 +358,7 @@
     <x:t xml:space="preserve">(4/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>RT21</x:t>
+    <x:t>xSfR</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_4444</x:t>
@@ -370,7 +370,7 @@
     <x:t xml:space="preserve">(5/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>75XB</x:t>
+    <x:t>U06q</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_X291</x:t>
@@ -397,7 +397,7 @@
     <x:t xml:space="preserve">(6/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>FZVZ</x:t>
+    <x:t>EhGW</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_N07F</x:t>
@@ -409,7 +409,7 @@
     <x:t xml:space="preserve">(7/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>Zl0I</x:t>
+    <x:t>ylr1</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/examples/test-js/dink-content/main-recording.xlsx
+++ b/examples/test-js/dink-content/main-recording.xlsx
@@ -46,28 +46,249 @@
     <x:t>AudioStatus</x:t>
   </x:si>
   <x:si>
+    <x:t>main_LauraChat_CO2Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LauraChat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAURA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hi, Laura here. What's up?</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>xrCj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unknown</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_LauraChat_Hub_5T8A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LauraChat_Hub</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oh, not too bad, thanks!</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">OPTION "How are things, Laura?"
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ng99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_LauraChat_Hub_J0MK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>It's pretty good today.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">OPTION "What's the weather like?"
+(1/3) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>dYqx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_LauraChat_Hub_CIMX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Raining as always.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(2/3) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>7jHP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_LauraChat_Hub_L3K7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dull, dull grey.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(3/3) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>rju7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_16U4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScene</x:t>
+  </x:si>
+  <x:si>
+    <x:t>We're testing some comments here.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment for a line.
+Another comment for the same line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ltTb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_G33S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>It'll only make sense if you export a recording script or the Dink structure.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_FF1T</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is another line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This comment goes to the voice actor.
+This comment goes to the localisers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_BQ1E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FRED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a loud line!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>loudly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fred is angry.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>David</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_IQIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glad that's over with!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_O037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Barks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hey!</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Set of random barks.
+(1/7) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>AhmM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_UWZ2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stop poking me!</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(2/7) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>sv3X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_1ZG8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Why do you keep doing that?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(3/7) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>3eFd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_JFG1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ignoring you. Gonna grab a beer.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(4/7) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>6PPO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_4444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>What? I'm busy - Jim's here.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(5/7) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>8qfr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_X291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JIM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I'm happy for you to poke him, really.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(...) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_L2SX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stop it!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shouting</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(6/7) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>IsSk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_N07F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wow this is annoying!</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(7/7) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>NA0w</x:t>
+  </x:si>
+  <x:si>
     <x:t>scene1_Scene1_Part1_S494</x:t>
   </x:si>
   <x:si>
     <x:t>Scene1_Part1</x:t>
   </x:si>
   <x:si>
-    <x:t>FRED</x:t>
-  </x:si>
-  <x:si>
     <x:t>This is a block called Part1 in a scene.</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>David</x:t>
-  </x:si>
-  <x:si>
-    <x:t>w7zp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Unknown</x:t>
+    <x:t>hnEq</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part1_ICIG</x:t>
@@ -91,7 +312,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>D5hS</x:t>
+    <x:t>c8Dr</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_NY6V</x:t>
@@ -109,7 +330,7 @@
     <x:t>There is a choice here.</x:t>
   </x:si>
   <x:si>
-    <x:t>WSyU</x:t>
+    <x:t>05Th</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -122,7 +343,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>aaR0</x:t>
+    <x:t>dPGP</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -135,7 +356,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>YDaQ</x:t>
+    <x:t>efn4</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -148,7 +369,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>blNR</x:t>
+    <x:t>hKWW</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -161,7 +382,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>GX53</x:t>
+    <x:t>MBZQ</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -176,7 +397,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>nvdw</x:t>
+    <x:t>mdoK</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -188,228 +409,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>SlpG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_LauraChat_CO2Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LauraChat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LAURA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hi, Laura here. What's up?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sd2u</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_LauraChat_Hub_5T8A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LauraChat_Hub</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oh, not too bad, thanks!</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">OPTION "How are things, Laura?"
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LTD9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_LauraChat_Hub_J0MK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>It's pretty good today.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">OPTION "What's the weather like?"
-(1/3) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>wEui</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_LauraChat_Hub_CIMX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Raining as always.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(2/3) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>GVje</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_LauraChat_Hub_L3K7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dull, dull grey.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(3/3) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>7inI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_TestScene_16U4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScene</x:t>
-  </x:si>
-  <x:si>
-    <x:t>We're testing some comments here.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment for a line.
-Another comment for the same line.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>y2Bv</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_TestScene_G33S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>It'll only make sense if you export a recording script or the Dink structure.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_TestScene_FF1T</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is another line.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This comment goes to the voice actor.
-This comment goes to the localisers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_TestScene_BQ1E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a loud line!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>loudly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fred is angry.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_TestScene_IQIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glad that's over with!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_O037</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Barks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hey!</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Set of random barks.
-(1/7) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>hUaM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_UWZ2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stop poking me!</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(2/7) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>lAkH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_1ZG8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Why do you keep doing that?</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(3/7) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>PSMq</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_JFG1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ignoring you. Gonna grab a beer.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(4/7) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>xSfR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_4444</x:t>
-  </x:si>
-  <x:si>
-    <x:t>What? I'm busy - Jim's here.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(5/7) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>U06q</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_X291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JIM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I'm happy for you to poke him, really.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(...) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_L2SX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stop it!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shouting</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(6/7) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>EhGW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_N07F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wow this is annoying!</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(7/7) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>ylr1</x:t>
+    <x:t>rH1O</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -908,784 +908,784 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G2" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H2" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="H2" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="I2" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A3" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="B3" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="C3" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="s">
+      <x:c r="D3" s="3" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G3" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H3" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I3" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J3" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
-      <x:c r="A4" s="3" t="s">
+      <x:c r="E3" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F3" s="5" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B4" s="3" t="s">
+      <x:c r="G3" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H3" s="3" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C4" s="3" t="s">
+      <x:c r="I3" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J3" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1" s="2" customFormat="1">
+      <x:c r="A4" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D4" s="3" t="s">
+      <x:c r="B4" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="E4" s="3" t="s">
+      <x:c r="E4" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F4" s="6" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="F4" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G4" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H4" s="3" t="s">
+      <x:c r="G4" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H4" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="I4" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J4" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="I4" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J4" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A5" s="3" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s">
+      <x:c r="B5" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="E5" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s">
+      <x:c r="G5" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
+      <x:c r="I5" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A6" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
+      <x:c r="B6" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="I5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J5" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
-      <x:c r="A6" s="3" t="s">
+      <x:c r="E6" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
+      <x:c r="G6" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H6" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I6" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J6" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:10" ht="27" customHeight="1" s="3" customFormat="1">
+      <x:c r="A7" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E6" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F6" s="5" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G6" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H6" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="I6" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J6" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="D7" s="3" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D7" s="2" t="s">
+      <x:c r="E7" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F7" s="5" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="E7" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F7" s="6" t="s">
+      <x:c r="G7" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="G7" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H7" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="I7" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J7" s="2" t="s">
-        <x:v>17</x:v>
+      <x:c r="I7" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J7" s="3" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A8" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E8" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F8" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G8" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H8" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I8" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J8" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:10" ht="27" customHeight="1" s="3" customFormat="1">
+      <x:c r="A9" s="3" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="E8" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F8" s="5" t="s">
+      <x:c r="B9" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D9" s="3" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="G8" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H8" s="3" t="s">
+      <x:c r="E9" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F9" s="5" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="I8" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J8" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A9" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B9" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E9" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F9" s="6" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="G9" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H9" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="I9" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J9" s="2" t="s">
-        <x:v>17</x:v>
+      <x:c r="G9" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H9" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I9" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J9" s="3" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
       <x:c r="A10" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B10" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D10" s="3" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E10" s="3" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F10" s="3" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="B10" s="3" t="s">
+      <x:c r="G10" s="3" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="C10" s="3" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D10" s="3" t="s">
+      <x:c r="H10" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I10" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J10" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A11" s="3" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="E10" s="3" t="s">
+      <x:c r="B11" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C11" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D11" s="3" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="F10" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G10" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H10" s="3" t="s">
+      <x:c r="E11" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F11" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G11" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H11" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I11" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J11" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:10" ht="27" customHeight="1" s="2" customFormat="1">
+      <x:c r="A12" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="I10" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J10" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A11" s="2" t="s">
+      <x:c r="B12" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="B11" s="2" t="s">
+      <x:c r="C12" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
+      <x:c r="E12" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F12" s="6" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="E11" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F11" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G11" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H11" s="2" t="s">
+      <x:c r="G12" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H12" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="I11" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J11" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
-      <x:c r="A12" s="3" t="s">
+      <x:c r="I12" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J12" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A13" s="3" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="B12" s="3" t="s">
+      <x:c r="B13" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C13" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D13" s="3" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C12" s="3" t="s">
+      <x:c r="E13" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F13" s="3" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D12" s="3" t="s">
+      <x:c r="G13" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H13" s="3" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="E12" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F12" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G12" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H12" s="3" t="s">
+      <x:c r="I13" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J13" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A14" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="I12" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J12" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A13" s="2" t="s">
+      <x:c r="B14" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="B13" s="2" t="s">
+      <x:c r="E14" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
+      <x:c r="G14" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H14" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="E13" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F13" s="6" t="s">
+      <x:c r="I14" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J14" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A15" s="3" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="G13" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H13" s="2" t="s">
+      <x:c r="B15" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C15" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="3" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="I13" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J13" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:10" ht="27" customHeight="1" s="3" customFormat="1">
-      <x:c r="A14" s="3" t="s">
+      <x:c r="E15" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F15" s="3" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="B14" s="3" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="C14" s="3" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D14" s="3" t="s">
+      <x:c r="G15" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H15" s="3" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="E14" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F14" s="5" t="s">
+      <x:c r="I15" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J15" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A16" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="G14" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H14" s="3" t="s">
+      <x:c r="B16" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="I14" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J14" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A15" s="2" t="s">
+      <x:c r="E16" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="B15" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
+      <x:c r="G16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H16" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="E15" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F15" s="2" t="s">
+      <x:c r="I16" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J16" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A17" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="G15" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H15" s="2" t="s">
+      <x:c r="B17" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="I15" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J15" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
-      <x:c r="A16" s="3" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="B16" s="3" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="C16" s="3" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D16" s="3" t="s">
+      <x:c r="E17" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="E16" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F16" s="3" t="s">
+      <x:c r="G17" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H17" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="I17" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J17" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A18" s="3" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="G16" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H16" s="3" t="s">
+      <x:c r="B18" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D18" s="3" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="I16" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J16" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:10" ht="27" customHeight="1" s="2" customFormat="1">
-      <x:c r="A17" s="2" t="s">
+      <x:c r="E18" s="3" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="B17" s="2" t="s">
+      <x:c r="F18" s="3" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
+      <x:c r="G18" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H18" s="3" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="E17" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F17" s="6" t="s">
+      <x:c r="I18" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J18" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A19" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="G17" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H17" s="2" t="s">
+      <x:c r="B19" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="I17" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J17" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A18" s="2" t="s">
+      <x:c r="E19" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="B18" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C18" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
+      <x:c r="G19" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H19" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="E18" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F18" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G18" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H18" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="I18" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J18" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:10" ht="27" customHeight="1" s="2" customFormat="1">
-      <x:c r="A19" s="2" t="s">
+      <x:c r="I19" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J19" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A20" s="3" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="B19" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
+      <x:c r="B20" s="3" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="E19" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F19" s="6" t="s">
+      <x:c r="C20" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D20" s="3" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="G19" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H19" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="I19" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J19" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A20" s="2" t="s">
+      <x:c r="E20" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F20" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G20" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H20" s="3" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
+      <x:c r="I20" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J20" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A21" s="3" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="E20" s="2" t="s">
+      <x:c r="B21" s="3" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C21" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D21" s="3" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="F20" s="2" t="s">
+      <x:c r="E21" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F21" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G21" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H21" s="3" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I21" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J21" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A22" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="G20" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H20" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="I20" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J20" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A21" s="2" t="s">
+      <x:c r="B22" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
+      <x:c r="C22" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="E21" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G21" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H21" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="I21" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J21" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:10" ht="27" customHeight="1" s="3" customFormat="1">
-      <x:c r="A22" s="3" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="B22" s="3" t="s">
+      <x:c r="E22" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="C22" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D22" s="3" t="s">
+      <x:c r="F22" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G22" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H22" s="2" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="E22" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F22" s="5" t="s">
+      <x:c r="I22" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J22" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A23" s="3" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="G22" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H22" s="3" t="s">
+      <x:c r="B23" s="3" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="I22" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J22" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A23" s="2" t="s">
+      <x:c r="C23" s="3" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
+      <x:c r="D23" s="3" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="E23" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s">
+      <x:c r="E23" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F23" s="3" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="G23" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H23" s="2" t="s">
+      <x:c r="G23" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H23" s="3" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="I23" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J23" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
-      <x:c r="A24" s="3" t="s">
+      <x:c r="I23" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J23" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A24" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="B24" s="3" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C24" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D24" s="3" t="s">
+      <x:c r="B24" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="E24" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F24" s="3" t="s">
+      <x:c r="E24" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F24" s="6" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="G24" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H24" s="3" t="s">
+      <x:c r="G24" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H24" s="2" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="I24" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J24" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
-      <x:c r="A25" s="2" t="s">
+      <x:c r="I24" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J24" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
+      <x:c r="A25" s="3" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
+      <x:c r="B25" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C25" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D25" s="3" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="E25" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s">
+      <x:c r="E25" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F25" s="5" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="G25" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H25" s="2" t="s">
+      <x:c r="G25" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H25" s="3" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="I25" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J25" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
-      <x:c r="A26" s="3" t="s">
+      <x:c r="I25" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J25" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
+      <x:c r="A26" s="2" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="B26" s="3" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C26" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D26" s="3" t="s">
+      <x:c r="B26" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="E26" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F26" s="3" t="s">
+      <x:c r="E26" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F26" s="6" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="G26" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H26" s="3" t="s">
+      <x:c r="G26" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H26" s="2" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="I26" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J26" s="3" t="s">
-        <x:v>17</x:v>
+      <x:c r="I26" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J26" s="2" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
@@ -1693,31 +1693,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B27" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D27" s="3" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="D27" s="3" t="s">
+      <x:c r="E27" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F27" s="5" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="E27" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F27" s="3" t="s">
+      <x:c r="G27" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H27" s="3" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="G27" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H27" s="3" t="s">
-        <x:v>115</x:v>
-      </x:c>
       <x:c r="I27" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J27" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:10" ht="13.5" customHeight="1" s="2" customFormat="1">
@@ -1725,22 +1725,22 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E28" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G28" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H28" s="2" t="s">
         <x:v>124</x:v>
@@ -1749,7 +1749,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J28" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:10" ht="13.5" customHeight="1" s="3" customFormat="1">
@@ -1757,22 +1757,22 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="B29" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D29" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E29" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F29" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G29" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H29" s="3" t="s">
         <x:v>128</x:v>
@@ -1781,7 +1781,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J29" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/examples/test-js/dink-content/main-recording.xlsx
+++ b/examples/test-js/dink-content/main-recording.xlsx
@@ -61,7 +61,7 @@
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>xrCj</x:t>
+    <x:t>pRc8</x:t>
   </x:si>
   <x:si>
     <x:t>Unknown</x:t>
@@ -80,7 +80,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>Ng99</x:t>
+    <x:t>jYRk</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_J0MK</x:t>
@@ -93,7 +93,7 @@
 (1/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>dYqx</x:t>
+    <x:t>44Bu</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_CIMX</x:t>
@@ -105,7 +105,7 @@
     <x:t xml:space="preserve">(2/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>7jHP</x:t>
+    <x:t>fS1D</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_L3K7</x:t>
@@ -117,7 +117,7 @@
     <x:t xml:space="preserve">(3/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>rju7</x:t>
+    <x:t>2qVk</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_16U4</x:t>
@@ -133,7 +133,7 @@
 Another comment for the same line.</x:t>
   </x:si>
   <x:si>
-    <x:t>ltTb</x:t>
+    <x:t>Mt0v</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_G33S</x:t>
@@ -189,7 +189,7 @@
 (1/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>AhmM</x:t>
+    <x:t>9jkf</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_UWZ2</x:t>
@@ -201,7 +201,7 @@
     <x:t xml:space="preserve">(2/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>sv3X</x:t>
+    <x:t>7ugC</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_1ZG8</x:t>
@@ -213,7 +213,7 @@
     <x:t xml:space="preserve">(3/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>3eFd</x:t>
+    <x:t>TDsX</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_JFG1</x:t>
@@ -225,7 +225,7 @@
     <x:t xml:space="preserve">(4/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>6PPO</x:t>
+    <x:t>qcyb</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_4444</x:t>
@@ -237,7 +237,7 @@
     <x:t xml:space="preserve">(5/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>8qfr</x:t>
+    <x:t>c8Ox</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_X291</x:t>
@@ -264,7 +264,7 @@
     <x:t xml:space="preserve">(6/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>IsSk</x:t>
+    <x:t>J12J</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_N07F</x:t>
@@ -276,7 +276,7 @@
     <x:t xml:space="preserve">(7/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>NA0w</x:t>
+    <x:t>Tt3X</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part1_S494</x:t>
@@ -288,7 +288,7 @@
     <x:t>This is a block called Part1 in a scene.</x:t>
   </x:si>
   <x:si>
-    <x:t>hnEq</x:t>
+    <x:t>VWFS</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part1_ICIG</x:t>
@@ -312,7 +312,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>c8Dr</x:t>
+    <x:t>lAhm</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_NY6V</x:t>
@@ -330,7 +330,7 @@
     <x:t>There is a choice here.</x:t>
   </x:si>
   <x:si>
-    <x:t>05Th</x:t>
+    <x:t>bE3k</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -343,7 +343,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>dPGP</x:t>
+    <x:t>sU8t</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -356,7 +356,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>efn4</x:t>
+    <x:t>QCZl</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -369,7 +369,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>hKWW</x:t>
+    <x:t>NB3S</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -382,7 +382,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>MBZQ</x:t>
+    <x:t>v3O6</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -397,7 +397,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>mdoK</x:t>
+    <x:t>THo6</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -409,7 +409,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>rH1O</x:t>
+    <x:t>4q8u</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/examples/test-js/dink-content/main-recording.xlsx
+++ b/examples/test-js/dink-content/main-recording.xlsx
@@ -61,7 +61,7 @@
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>pRc8</x:t>
+    <x:t>LI2i</x:t>
   </x:si>
   <x:si>
     <x:t>Unknown</x:t>
@@ -80,7 +80,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>jYRk</x:t>
+    <x:t>14hw</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_J0MK</x:t>
@@ -93,7 +93,7 @@
 (1/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>44Bu</x:t>
+    <x:t>Iu7g</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_CIMX</x:t>
@@ -105,7 +105,7 @@
     <x:t xml:space="preserve">(2/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>fS1D</x:t>
+    <x:t>MdR8</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_L3K7</x:t>
@@ -117,7 +117,7 @@
     <x:t xml:space="preserve">(3/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>2qVk</x:t>
+    <x:t>QeZy</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_16U4</x:t>
@@ -133,7 +133,7 @@
 Another comment for the same line.</x:t>
   </x:si>
   <x:si>
-    <x:t>Mt0v</x:t>
+    <x:t>bsX4</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_G33S</x:t>
@@ -189,7 +189,7 @@
 (1/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>9jkf</x:t>
+    <x:t>vuhJ</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_UWZ2</x:t>
@@ -201,7 +201,7 @@
     <x:t xml:space="preserve">(2/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>7ugC</x:t>
+    <x:t>DslZ</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_1ZG8</x:t>
@@ -213,7 +213,7 @@
     <x:t xml:space="preserve">(3/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>TDsX</x:t>
+    <x:t>cqPF</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_JFG1</x:t>
@@ -225,7 +225,7 @@
     <x:t xml:space="preserve">(4/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>qcyb</x:t>
+    <x:t>inIQ</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_4444</x:t>
@@ -237,7 +237,7 @@
     <x:t xml:space="preserve">(5/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>c8Ox</x:t>
+    <x:t>3TbQ</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_X291</x:t>
@@ -264,7 +264,7 @@
     <x:t xml:space="preserve">(6/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>J12J</x:t>
+    <x:t>Fdsi</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_N07F</x:t>
@@ -276,7 +276,7 @@
     <x:t xml:space="preserve">(7/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>Tt3X</x:t>
+    <x:t>JF87</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part1_S494</x:t>
@@ -288,7 +288,7 @@
     <x:t>This is a block called Part1 in a scene.</x:t>
   </x:si>
   <x:si>
-    <x:t>VWFS</x:t>
+    <x:t>bXzO</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part1_ICIG</x:t>
@@ -312,7 +312,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>lAhm</x:t>
+    <x:t>EYip</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_NY6V</x:t>
@@ -330,7 +330,7 @@
     <x:t>There is a choice here.</x:t>
   </x:si>
   <x:si>
-    <x:t>bE3k</x:t>
+    <x:t>77CJ</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -343,7 +343,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>sU8t</x:t>
+    <x:t>0olR</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -356,7 +356,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>QCZl</x:t>
+    <x:t>yydv</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -369,7 +369,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>NB3S</x:t>
+    <x:t>YQvi</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -382,7 +382,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>v3O6</x:t>
+    <x:t>veTB</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -397,7 +397,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>THo6</x:t>
+    <x:t>X6va</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -409,7 +409,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>4q8u</x:t>
+    <x:t>hUNn</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/examples/test-js/dink-content/main-recording.xlsx
+++ b/examples/test-js/dink-content/main-recording.xlsx
@@ -61,7 +61,7 @@
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>LI2i</x:t>
+    <x:t>YkTdef</x:t>
   </x:si>
   <x:si>
     <x:t>Unknown</x:t>
@@ -80,7 +80,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>14hw</x:t>
+    <x:t>chW8xg</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_J0MK</x:t>
@@ -93,7 +93,7 @@
 (1/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>Iu7g</x:t>
+    <x:t>jZ2lVG</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_CIMX</x:t>
@@ -105,7 +105,7 @@
     <x:t xml:space="preserve">(2/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>MdR8</x:t>
+    <x:t>PXBE7j</x:t>
   </x:si>
   <x:si>
     <x:t>main_LauraChat_Hub_L3K7</x:t>
@@ -117,7 +117,7 @@
     <x:t xml:space="preserve">(3/3) </x:t>
   </x:si>
   <x:si>
-    <x:t>QeZy</x:t>
+    <x:t>DvVSQ6</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_16U4</x:t>
@@ -133,7 +133,7 @@
 Another comment for the same line.</x:t>
   </x:si>
   <x:si>
-    <x:t>bsX4</x:t>
+    <x:t>qQOReF</x:t>
   </x:si>
   <x:si>
     <x:t>main_TestScene_G33S</x:t>
@@ -189,7 +189,7 @@
 (1/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>vuhJ</x:t>
+    <x:t>iZ38Lw</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_UWZ2</x:t>
@@ -201,7 +201,7 @@
     <x:t xml:space="preserve">(2/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>DslZ</x:t>
+    <x:t>32hKE1</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_1ZG8</x:t>
@@ -213,7 +213,7 @@
     <x:t xml:space="preserve">(3/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>cqPF</x:t>
+    <x:t>U30VuF</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_JFG1</x:t>
@@ -225,7 +225,7 @@
     <x:t xml:space="preserve">(4/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>inIQ</x:t>
+    <x:t>i1GMUb</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_4444</x:t>
@@ -237,7 +237,7 @@
     <x:t xml:space="preserve">(5/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>3TbQ</x:t>
+    <x:t>MdGHyj</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_X291</x:t>
@@ -264,7 +264,7 @@
     <x:t xml:space="preserve">(6/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>Fdsi</x:t>
+    <x:t>15ftGt</x:t>
   </x:si>
   <x:si>
     <x:t>main_Barks_N07F</x:t>
@@ -276,7 +276,7 @@
     <x:t xml:space="preserve">(7/7) </x:t>
   </x:si>
   <x:si>
-    <x:t>JF87</x:t>
+    <x:t>bbXZ4o</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part1_S494</x:t>
@@ -288,7 +288,7 @@
     <x:t>This is a block called Part1 in a scene.</x:t>
   </x:si>
   <x:si>
-    <x:t>bXzO</x:t>
+    <x:t>9YpLlu</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part1_ICIG</x:t>
@@ -312,7 +312,7 @@
     <x:t>quietly</x:t>
   </x:si>
   <x:si>
-    <x:t>EYip</x:t>
+    <x:t>kRZMEF</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_NY6V</x:t>
@@ -330,7 +330,7 @@
     <x:t>There is a choice here.</x:t>
   </x:si>
   <x:si>
-    <x:t>77CJ</x:t>
+    <x:t>AQWHIa</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_F0PF</x:t>
@@ -343,7 +343,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>0olR</x:t>
+    <x:t>xo4coL</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_DNII</x:t>
@@ -356,7 +356,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>yydv</x:t>
+    <x:t>BZAGzy</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_AJDP</x:t>
@@ -369,7 +369,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>YQvi</x:t>
+    <x:t>IkrPq2</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Part4_0YY1</x:t>
@@ -382,7 +382,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>veTB</x:t>
+    <x:t>lTztHz</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
@@ -397,7 +397,7 @@
     <x:t>upset</x:t>
   </x:si>
   <x:si>
-    <x:t>X6va</x:t>
+    <x:t>0pCnXe</x:t>
   </x:si>
   <x:si>
     <x:t>scene1_Scene1_Left_MIM6</x:t>
@@ -409,7 +409,7 @@
     <x:t>You sure you want to go left?</x:t>
   </x:si>
   <x:si>
-    <x:t>hUNn</x:t>
+    <x:t>GBmTaQ</x:t>
   </x:si>
 </x:sst>
 </file>
